--- a/docs/data/old_faithful_eras.xlsx
+++ b/docs/data/old_faithful_eras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{209AE0A8-79E3-4325-B4CE-7B0CBDDB6A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CC729-F3AE-41E9-95B8-CF91334B2B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7370" xr2:uid="{59241AE9-1D5D-4A78-AF64-2D733D786129}"/>
+    <workbookView xWindow="-57720" yWindow="-8250" windowWidth="29040" windowHeight="16440" xr2:uid="{59241AE9-1D5D-4A78-AF64-2D733D786129}"/>
   </bookViews>
   <sheets>
     <sheet name="Still Faithful" sheetId="3" r:id="rId1"/>
@@ -93,20 +93,20 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>august_2020</t>
+    <t>comments</t>
   </si>
   <si>
     <t>august_1985</t>
   </si>
   <si>
-    <t>comments</t>
+    <t>august_2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,9 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B612B3-8BA3-402C-9229-D3466F4B2521}">
   <dimension ref="A1:C300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -488,10 +492,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2637,6 +2641,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://emp.byui.edu/johnsonc/Data/OldFaithful-Unabridged.xlsx" xr:uid="{56CAA670-8641-42E8-B679-81E47FB7A475}"/>
   </hyperlinks>
